--- a/team_specific_matrix/North Florida_A.xlsx
+++ b/team_specific_matrix/North Florida_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1822916666666667</v>
+        <v>0.1622641509433962</v>
       </c>
       <c r="C2">
-        <v>0.6041666666666666</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01041666666666667</v>
+        <v>0.01132075471698113</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.140625</v>
+        <v>0.1169811320754717</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0625</v>
+        <v>0.06792452830188679</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02542372881355932</v>
+        <v>0.03409090909090909</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01694915254237288</v>
+        <v>0.02840909090909091</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7796610169491526</v>
+        <v>0.7840909090909091</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1779661016949153</v>
+        <v>0.1534090909090909</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04545454545454546</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5909090909090909</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3636363636363636</v>
+        <v>0.2903225806451613</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07228915662650602</v>
+        <v>0.06912442396313365</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.006024096385542169</v>
+        <v>0.004608294930875576</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04819277108433735</v>
+        <v>0.05069124423963134</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2530120481927711</v>
+        <v>0.2350230414746544</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01807228915662651</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.108433734939759</v>
+        <v>0.1336405529953917</v>
       </c>
       <c r="R6">
-        <v>0.0963855421686747</v>
+        <v>0.1059907834101382</v>
       </c>
       <c r="S6">
-        <v>0.3975903614457831</v>
+        <v>0.3824884792626728</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1282051282051282</v>
+        <v>0.1330275229357798</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00641025641025641</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="E7">
-        <v>0.00641025641025641</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="F7">
-        <v>0.07051282051282051</v>
+        <v>0.05963302752293578</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09615384615384616</v>
+        <v>0.0871559633027523</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03846153846153846</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1217948717948718</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="R7">
-        <v>0.108974358974359</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="S7">
-        <v>0.4230769230769231</v>
+        <v>0.4541284403669725</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08620689655172414</v>
+        <v>0.08394160583941605</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0270935960591133</v>
+        <v>0.02737226277372263</v>
       </c>
       <c r="E8">
-        <v>0.002463054187192118</v>
+        <v>0.001824817518248175</v>
       </c>
       <c r="F8">
-        <v>0.05911330049261083</v>
+        <v>0.06386861313868614</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1083743842364532</v>
+        <v>0.09854014598540146</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.007389162561576354</v>
+        <v>0.01094890510948905</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.145320197044335</v>
+        <v>0.1514598540145985</v>
       </c>
       <c r="R8">
-        <v>0.1379310344827586</v>
+        <v>0.1313868613138686</v>
       </c>
       <c r="S8">
-        <v>0.4261083743842364</v>
+        <v>0.4306569343065693</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08917197452229299</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01273885350318471</v>
+        <v>0.01176470588235294</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06369426751592357</v>
+        <v>0.04117647058823529</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08280254777070063</v>
+        <v>0.07647058823529412</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006369426751592357</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1464968152866242</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="R9">
-        <v>0.1337579617834395</v>
+        <v>0.1529411764705882</v>
       </c>
       <c r="S9">
-        <v>0.464968152866242</v>
+        <v>0.4764705882352941</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08984830805134189</v>
+        <v>0.09527824620573355</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.009334889148191364</v>
+        <v>0.01011804384485666</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06884480746791131</v>
+        <v>0.06576728499156829</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1085180863477246</v>
+        <v>0.1079258010118044</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.009334889148191364</v>
+        <v>0.01096121416526138</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1726954492415403</v>
+        <v>0.1711635750421585</v>
       </c>
       <c r="R10">
-        <v>0.1458576429404901</v>
+        <v>0.1450252951096122</v>
       </c>
       <c r="S10">
-        <v>0.3955659276546091</v>
+        <v>0.393760539629005</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1741071428571428</v>
+        <v>0.1401869158878505</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09821428571428571</v>
+        <v>0.102803738317757</v>
       </c>
       <c r="K11">
-        <v>0.2321428571428572</v>
+        <v>0.1931464174454829</v>
       </c>
       <c r="L11">
-        <v>0.4821428571428572</v>
+        <v>0.5545171339563862</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01339285714285714</v>
+        <v>0.009345794392523364</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8378378378378378</v>
+        <v>0.8044692737430168</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1261261261261261</v>
+        <v>0.1452513966480447</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.00558659217877095</v>
       </c>
       <c r="L12">
-        <v>0.009009009009009009</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02702702702702703</v>
+        <v>0.0223463687150838</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.65</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.275</v>
+        <v>0.2608695652173913</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.075</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.007142857142857143</v>
+        <v>0.02105263157894737</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2285714285714286</v>
+        <v>0.2</v>
       </c>
       <c r="I15">
-        <v>0.03571428571428571</v>
+        <v>0.03684210526315789</v>
       </c>
       <c r="J15">
-        <v>0.3642857142857143</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="K15">
-        <v>0.07142857142857142</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.05714285714285714</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05714285714285714</v>
+        <v>0.06842105263157895</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1785714285714286</v>
+        <v>0.1736842105263158</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007751937984496124</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2170542635658915</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="I16">
-        <v>0.07751937984496124</v>
+        <v>0.07526881720430108</v>
       </c>
       <c r="J16">
-        <v>0.2790697674418605</v>
+        <v>0.3225806451612903</v>
       </c>
       <c r="K16">
-        <v>0.1472868217054264</v>
+        <v>0.1344086021505376</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03875968992248062</v>
+        <v>0.02688172043010753</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06976744186046512</v>
+        <v>0.05913978494623656</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1627906976744186</v>
+        <v>0.1451612903225807</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01509433962264151</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2</v>
+        <v>0.2099447513812155</v>
       </c>
       <c r="I17">
-        <v>0.09056603773584905</v>
+        <v>0.07734806629834254</v>
       </c>
       <c r="J17">
-        <v>0.3886792452830189</v>
+        <v>0.4033149171270718</v>
       </c>
       <c r="K17">
-        <v>0.07924528301886792</v>
+        <v>0.09116022099447514</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01886792452830189</v>
+        <v>0.02209944751381215</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07924528301886792</v>
+        <v>0.06353591160220995</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1283018867924528</v>
+        <v>0.1104972375690608</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02542372881355932</v>
+        <v>0.01880877742946709</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2542372881355932</v>
+        <v>0.2507836990595611</v>
       </c>
       <c r="I18">
-        <v>0.0635593220338983</v>
+        <v>0.05642633228840126</v>
       </c>
       <c r="J18">
-        <v>0.3686440677966102</v>
+        <v>0.3761755485893417</v>
       </c>
       <c r="K18">
-        <v>0.1059322033898305</v>
+        <v>0.122257053291536</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008474576271186441</v>
+        <v>0.01253918495297806</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05932203389830509</v>
+        <v>0.05329153605015674</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1144067796610169</v>
+        <v>0.109717868338558</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02689243027888446</v>
+        <v>0.02007722007722008</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2270916334661355</v>
+        <v>0.2455598455598456</v>
       </c>
       <c r="I19">
-        <v>0.1035856573705179</v>
+        <v>0.08030888030888031</v>
       </c>
       <c r="J19">
-        <v>0.3386454183266932</v>
+        <v>0.3598455598455598</v>
       </c>
       <c r="K19">
-        <v>0.09163346613545817</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0199203187250996</v>
+        <v>0.01544401544401544</v>
       </c>
       <c r="N19">
-        <v>0.0009960159362549801</v>
+        <v>0.0007722007722007722</v>
       </c>
       <c r="O19">
-        <v>0.04880478087649402</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1424302788844622</v>
+        <v>0.1127413127413127</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/North Florida_A.xlsx
+++ b/team_specific_matrix/North Florida_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1622641509433962</v>
+        <v>0.1654676258992806</v>
       </c>
       <c r="C2">
-        <v>0.6415094339622641</v>
+        <v>0.6366906474820144</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01132075471698113</v>
+        <v>0.01079136690647482</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1169811320754717</v>
+        <v>0.1151079136690648</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06792452830188679</v>
+        <v>0.07194244604316546</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03409090909090909</v>
+        <v>0.03278688524590164</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02840909090909091</v>
+        <v>0.0273224043715847</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7840909090909091</v>
+        <v>0.7868852459016393</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1534090909090909</v>
+        <v>0.1530054644808743</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06451612903225806</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6451612903225806</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2903225806451613</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06912442396313365</v>
+        <v>0.06437768240343347</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004608294930875576</v>
+        <v>0.004291845493562232</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05069124423963134</v>
+        <v>0.04721030042918455</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2350230414746544</v>
+        <v>0.2360515021459227</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0184331797235023</v>
+        <v>0.01716738197424893</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1336405529953917</v>
+        <v>0.1330472103004292</v>
       </c>
       <c r="R6">
-        <v>0.1059907834101382</v>
+        <v>0.1158798283261803</v>
       </c>
       <c r="S6">
-        <v>0.3824884792626728</v>
+        <v>0.3819742489270386</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1330275229357798</v>
+        <v>0.1266375545851528</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009174311926605505</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="E7">
-        <v>0.009174311926605505</v>
+        <v>0.008733624454148471</v>
       </c>
       <c r="F7">
-        <v>0.05963302752293578</v>
+        <v>0.06986899563318777</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0871559633027523</v>
+        <v>0.08733624454148471</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02752293577981652</v>
+        <v>0.03056768558951965</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1100917431192661</v>
+        <v>0.1091703056768559</v>
       </c>
       <c r="R7">
-        <v>0.1100917431192661</v>
+        <v>0.1091703056768559</v>
       </c>
       <c r="S7">
-        <v>0.4541284403669725</v>
+        <v>0.4497816593886463</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08394160583941605</v>
+        <v>0.08075601374570447</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02737226277372263</v>
+        <v>0.02920962199312715</v>
       </c>
       <c r="E8">
-        <v>0.001824817518248175</v>
+        <v>0.001718213058419244</v>
       </c>
       <c r="F8">
-        <v>0.06386861313868614</v>
+        <v>0.06185567010309279</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09854014598540146</v>
+        <v>0.09621993127147767</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01094890510948905</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1514598540145985</v>
+        <v>0.1580756013745704</v>
       </c>
       <c r="R8">
-        <v>0.1313868613138686</v>
+        <v>0.1288659793814433</v>
       </c>
       <c r="S8">
-        <v>0.4306569343065693</v>
+        <v>0.4329896907216495</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08235294117647059</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01176470588235294</v>
+        <v>0.01075268817204301</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04117647058823529</v>
+        <v>0.04301075268817205</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07647058823529412</v>
+        <v>0.08602150537634409</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.005882352941176471</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1529411764705882</v>
+        <v>0.1451612903225807</v>
       </c>
       <c r="R9">
-        <v>0.1529411764705882</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="S9">
-        <v>0.4764705882352941</v>
+        <v>0.4623655913978494</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09527824620573355</v>
+        <v>0.09501187648456057</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01011804384485666</v>
+        <v>0.009501187648456057</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06576728499156829</v>
+        <v>0.06730007917656373</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1079258010118044</v>
+        <v>0.107680126682502</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01096121416526138</v>
+        <v>0.01108471892319873</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1711635750421585</v>
+        <v>0.1670625494853523</v>
       </c>
       <c r="R10">
-        <v>0.1450252951096122</v>
+        <v>0.1456848772763262</v>
       </c>
       <c r="S10">
-        <v>0.393760539629005</v>
+        <v>0.3966745843230404</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1401869158878505</v>
+        <v>0.1420118343195266</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.102803738317757</v>
+        <v>0.1005917159763314</v>
       </c>
       <c r="K11">
-        <v>0.1931464174454829</v>
+        <v>0.1982248520710059</v>
       </c>
       <c r="L11">
-        <v>0.5545171339563862</v>
+        <v>0.5502958579881657</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.009345794392523364</v>
+        <v>0.008875739644970414</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8044692737430168</v>
+        <v>0.8031914893617021</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1452513966480447</v>
+        <v>0.1436170212765958</v>
       </c>
       <c r="K12">
-        <v>0.00558659217877095</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="L12">
-        <v>0.0223463687150838</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0223463687150838</v>
+        <v>0.02127659574468085</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6956521739130435</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2608695652173913</v>
+        <v>0.2553191489361702</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04347826086956522</v>
+        <v>0.0425531914893617</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02105263157894737</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.2</v>
+        <v>0.1877934272300469</v>
       </c>
       <c r="I15">
-        <v>0.03684210526315789</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="J15">
-        <v>0.3684210526315789</v>
+        <v>0.3661971830985916</v>
       </c>
       <c r="K15">
-        <v>0.07894736842105263</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.05263157894736842</v>
+        <v>0.04694835680751173</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06842105263157895</v>
+        <v>0.09389671361502347</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1736842105263158</v>
+        <v>0.1643192488262911</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02150537634408602</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2150537634408602</v>
+        <v>0.2091836734693878</v>
       </c>
       <c r="I16">
-        <v>0.07526881720430108</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J16">
-        <v>0.3225806451612903</v>
+        <v>0.336734693877551</v>
       </c>
       <c r="K16">
-        <v>0.1344086021505376</v>
+        <v>0.1275510204081633</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02688172043010753</v>
+        <v>0.02551020408163265</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05913978494623656</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1451612903225807</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02209944751381215</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2099447513812155</v>
+        <v>0.2146596858638743</v>
       </c>
       <c r="I17">
-        <v>0.07734806629834254</v>
+        <v>0.07591623036649214</v>
       </c>
       <c r="J17">
-        <v>0.4033149171270718</v>
+        <v>0.4005235602094241</v>
       </c>
       <c r="K17">
-        <v>0.09116022099447514</v>
+        <v>0.09162303664921466</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02209944751381215</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06353591160220995</v>
+        <v>0.06806282722513089</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1104972375690608</v>
+        <v>0.1073298429319372</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01880877742946709</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2507836990595611</v>
+        <v>0.2478134110787172</v>
       </c>
       <c r="I18">
-        <v>0.05642633228840126</v>
+        <v>0.05830903790087463</v>
       </c>
       <c r="J18">
-        <v>0.3761755485893417</v>
+        <v>0.3731778425655977</v>
       </c>
       <c r="K18">
-        <v>0.122257053291536</v>
+        <v>0.1137026239067055</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01253918495297806</v>
+        <v>0.01166180758017493</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05329153605015674</v>
+        <v>0.05830903790087463</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.109717868338558</v>
+        <v>0.1166180758017493</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02007722007722008</v>
+        <v>0.0195369030390738</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2455598455598456</v>
+        <v>0.2445730824891462</v>
       </c>
       <c r="I19">
-        <v>0.08030888030888031</v>
+        <v>0.08321273516642547</v>
       </c>
       <c r="J19">
-        <v>0.3598455598455598</v>
+        <v>0.3581765557163531</v>
       </c>
       <c r="K19">
-        <v>0.1081081081081081</v>
+        <v>0.1070911722141824</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01544401544401544</v>
+        <v>0.01519536903039074</v>
       </c>
       <c r="N19">
-        <v>0.0007722007722007722</v>
+        <v>0.0007235890014471779</v>
       </c>
       <c r="O19">
-        <v>0.05714285714285714</v>
+        <v>0.05716353111432707</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1127413127413127</v>
+        <v>0.1143270622286541</v>
       </c>
     </row>
   </sheetData>
